--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Strathom.Fall.120619-1.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Strathom.Fall.120619-1.xlsx_with_dialog_acts.xlsx
@@ -585,12 +585,12 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -813,12 +813,12 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -965,12 +965,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1041,12 +1041,12 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1079,12 +1079,12 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1307,12 +1307,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1421,12 +1421,12 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1995,12 +1995,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2071,12 +2071,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2299,12 +2299,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2527,12 +2527,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2679,12 +2679,12 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2911,12 +2911,12 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3139,12 +3139,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3557,12 +3557,12 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3785,12 +3785,12 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4469,12 +4469,12 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4811,12 +4811,12 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5381,12 +5381,12 @@
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5837,12 +5837,12 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6103,12 +6103,12 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6217,12 +6217,12 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6753,12 +6753,12 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6943,12 +6943,12 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7057,12 +7057,12 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7517,12 +7517,12 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7555,12 +7555,12 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8049,12 +8049,12 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8277,12 +8277,12 @@
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8543,12 +8543,12 @@
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8775,12 +8775,12 @@
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8965,12 +8965,12 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9079,12 +9079,12 @@
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9269,12 +9269,12 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9307,12 +9307,12 @@
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9459,12 +9459,12 @@
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
